--- a/trunk/References/Templates/Web MockUp/Đại lý.xlsx
+++ b/trunk/References/Templates/Web MockUp/Đại lý.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Đại Lý - Home Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Đại Lý - Nạp tiền tài khoản" sheetId="2" r:id="rId2"/>
-    <sheet name="Đại lý - Lịch sử giao dịch" sheetId="3" r:id="rId3"/>
+    <sheet name="HomePage Definition" sheetId="4" r:id="rId2"/>
+    <sheet name="Đại Lý - Nạp tiền tài khoản" sheetId="2" r:id="rId3"/>
+    <sheet name="Nạp tiền tại khoản definition" sheetId="5" r:id="rId4"/>
+    <sheet name="Đại lý - Lịch sử giao dịch" sheetId="3" r:id="rId5"/>
+    <sheet name="Lịch sử giao dịch definition" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="127">
   <si>
     <t>Logo</t>
   </si>
@@ -327,6 +330,177 @@
   </si>
   <si>
     <t>13/12/2014</t>
+  </si>
+  <si>
+    <t>Screen Definition</t>
+  </si>
+  <si>
+    <t>Screen ID : #1</t>
+  </si>
+  <si>
+    <t>Screen Name : Đại Lý - HomePage</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Name </t>
+  </si>
+  <si>
+    <t>En- FieldName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>tên khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">text </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>tên khách hàng cần tìm kiếm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tên đăng nhập </t>
+  </si>
+  <si>
+    <t xml:space="preserve">login name </t>
+  </si>
+  <si>
+    <t>tên đăng nhập của khách hàng</t>
+  </si>
+  <si>
+    <t>Tìm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search </t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nút tìm kiếm </t>
+  </si>
+  <si>
+    <t>Kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>result table</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>kết quả tìm kiếm trả về</t>
+  </si>
+  <si>
+    <t>tên lái xe / tổ chức</t>
+  </si>
+  <si>
+    <t>Tác vu</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>link liên kết đến dialog nạp tiền tài khoản</t>
+  </si>
+  <si>
+    <t>Screen ID : #2</t>
+  </si>
+  <si>
+    <t>Screen Name : Đại lý - Nạp tiền tài khoản</t>
+  </si>
+  <si>
+    <t>tên người sử dụng</t>
+  </si>
+  <si>
+    <t>địa chỉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">số điện thoại </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhân viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">số dư hiện tại </t>
+  </si>
+  <si>
+    <t>số tiền nạp</t>
+  </si>
+  <si>
+    <t>xác nhận</t>
+  </si>
+  <si>
+    <t>thoát</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>Screen ID : #3</t>
+  </si>
+  <si>
+    <t>từ ngày</t>
+  </si>
+  <si>
+    <t>đến ngày</t>
+  </si>
+  <si>
+    <t>tra cứu</t>
+  </si>
+  <si>
+    <t>kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>stt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngày tháng </t>
+  </si>
+  <si>
+    <t>nhân viên</t>
+  </si>
+  <si>
+    <t>table list</t>
   </si>
 </sst>
 </file>
@@ -398,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +597,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -698,12 +878,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -788,229 +992,202 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1020,6 +1197,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1332,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BG48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR32" sqref="AR32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1348,40 +1559,40 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
       <c r="AF2" s="20" t="s">
         <v>5</v>
       </c>
@@ -1414,36 +1625,36 @@
       <c r="BG2" s="19"/>
     </row>
     <row r="3" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="76"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="72"/>
       <c r="AF3" s="23" t="s">
         <v>3</v>
       </c>
@@ -1476,36 +1687,36 @@
       <c r="BG3" s="19"/>
     </row>
     <row r="4" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="79"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
       <c r="AF4" s="25"/>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
@@ -1576,18 +1787,18 @@
       <c r="AW5" s="7"/>
     </row>
     <row r="6" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="80" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -1706,17 +1917,17 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="85"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="57"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -1745,17 +1956,17 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="85"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="57"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -1824,12 +2035,12 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="86" t="s">
+      <c r="S12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="88"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="60"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -1885,425 +2096,425 @@
     <row r="14" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="111" t="s">
+      <c r="E14" s="91"/>
+      <c r="F14" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="111" t="s">
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="111" t="s">
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="112"/>
-      <c r="AF14" s="111" t="s">
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="113"/>
-      <c r="AJ14" s="112"/>
-      <c r="AK14" s="114" t="s">
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AL14" s="115"/>
-      <c r="AM14" s="115"/>
-      <c r="AN14" s="116"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="84"/>
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="51">
+      <c r="D15" s="64">
         <v>1</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="51" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="51" t="s">
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="51" t="s">
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="66" t="s">
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="54" t="s">
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="56"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="95"/>
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="48">
+      <c r="D16" s="61">
         <v>2</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48" t="s">
+      <c r="E16" s="63"/>
+      <c r="F16" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="48" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="48" t="s">
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="67" t="s">
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="57" t="s">
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="59"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="98"/>
       <c r="AO16" s="12"/>
     </row>
     <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="51">
+      <c r="D17" s="64">
         <v>3</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="62"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="89"/>
       <c r="AO17" s="12"/>
     </row>
     <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="48">
+      <c r="D18" s="61">
         <v>4</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="65"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="101"/>
+      <c r="AM18" s="101"/>
+      <c r="AN18" s="102"/>
       <c r="AO18" s="12"/>
     </row>
     <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="51">
+      <c r="D19" s="64">
         <v>5</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="62"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="89"/>
       <c r="AO19" s="12"/>
     </row>
     <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="48">
+      <c r="D20" s="61">
         <v>6</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="65"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="101"/>
+      <c r="AM20" s="101"/>
+      <c r="AN20" s="102"/>
       <c r="AO20" s="12"/>
     </row>
     <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
-      <c r="D21" s="60">
+      <c r="D21" s="88">
         <v>7</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="62"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="88"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="89"/>
       <c r="AO21" s="12"/>
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="69"/>
-      <c r="AN22" s="70"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="86"/>
+      <c r="AL22" s="86"/>
+      <c r="AM22" s="86"/>
+      <c r="AN22" s="87"/>
       <c r="AO22" s="12"/>
     </row>
     <row r="23" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2333,7 +2544,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="119"/>
+      <c r="V24" s="51"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
@@ -2400,48 +2611,48 @@
     </row>
     <row r="28" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="107"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="107"/>
-      <c r="AI29" s="107"/>
-      <c r="AJ29" s="107"/>
-      <c r="AK29" s="107"/>
-      <c r="AL29" s="107"/>
-      <c r="AM29" s="107"/>
-      <c r="AN29" s="107"/>
-      <c r="AO29" s="118"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="50"/>
     </row>
     <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
@@ -2674,16 +2885,36 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:AE4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="AK15:AN15"/>
+    <mergeCell ref="AK16:AN16"/>
+    <mergeCell ref="AK17:AN17"/>
+    <mergeCell ref="AK18:AN18"/>
+    <mergeCell ref="AK19:AN19"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
     <mergeCell ref="AK14:AN14"/>
     <mergeCell ref="D22:AN22"/>
     <mergeCell ref="D15:E15"/>
@@ -2700,36 +2931,16 @@
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="Q14:AE14"/>
     <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="AF20:AJ20"/>
-    <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="AK15:AN15"/>
-    <mergeCell ref="AK16:AN16"/>
-    <mergeCell ref="AK17:AN17"/>
-    <mergeCell ref="AK18:AN18"/>
-    <mergeCell ref="AK19:AN19"/>
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AF15:AJ15"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="AF18:AJ18"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:AE4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Sheet1!A1" display="Home"/>
@@ -2743,24 +2954,307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="135" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="133">
+        <v>1</v>
+      </c>
+      <c r="C7" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="133"/>
+      <c r="H7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="133">
+        <v>2</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="133"/>
+      <c r="H8" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="133">
+        <v>3</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="133">
+        <v>4</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="133">
+        <v>5</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="133">
+        <v>6</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="133">
+        <v>7</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="133">
+        <v>8</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="133">
+        <v>9</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="133">
+        <v>10</v>
+      </c>
+      <c r="C16" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:N15"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="36" t="s">
         <v>6</v>
       </c>
@@ -2848,10 +3342,10 @@
         <v>39</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2865,15 +3359,15 @@
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2887,21 +3381,21 @@
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="125"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -2997,11 +3491,282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="135" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="133">
+        <v>1</v>
+      </c>
+      <c r="C7" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="133"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="133">
+        <v>2</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="133"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="133">
+        <v>3</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="133">
+        <v>4</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="133">
+        <v>5</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="133">
+        <v>6</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="133">
+        <v>7</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="133">
+        <v>8</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="133">
+        <v>9</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BD23" sqref="BD23"/>
     </sheetView>
   </sheetViews>
@@ -3017,40 +3782,40 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
       <c r="AF2" s="20" t="s">
         <v>5</v>
       </c>
@@ -3083,36 +3848,36 @@
       <c r="BG2" s="19"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="76"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="72"/>
       <c r="AF3" s="23" t="s">
         <v>3</v>
       </c>
@@ -3145,36 +3910,36 @@
       <c r="BG3" s="19"/>
     </row>
     <row r="4" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="79"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
       <c r="AF4" s="25"/>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
@@ -3245,18 +4010,18 @@
       <c r="AW5" s="7"/>
     </row>
     <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="126" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -3392,13 +4157,13 @@
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="96"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="117"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="39"/>
@@ -3413,15 +4178,15 @@
       <c r="AB9" s="39"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="39"/>
-      <c r="AE9" s="94" t="s">
+      <c r="AE9" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="95"/>
-      <c r="AJ9" s="95"/>
-      <c r="AK9" s="96"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="117"/>
       <c r="AL9" s="34"/>
       <c r="AM9" s="34"/>
       <c r="AN9" s="34"/>
@@ -3488,12 +4253,12 @@
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="103" t="s">
+      <c r="T11" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="105"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="129"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
       <c r="Z11" s="39"/>
@@ -3600,43 +4365,43 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="127" t="s">
+      <c r="I14" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="127" t="s">
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="127" t="s">
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="127" t="s">
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="129"/>
-      <c r="AD14" s="127" t="s">
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="AE14" s="128"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="128"/>
-      <c r="AH14" s="128"/>
-      <c r="AI14" s="129"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="120"/>
       <c r="AJ14" s="39"/>
       <c r="AK14" s="41"/>
       <c r="AL14" s="41"/>
@@ -3652,43 +4417,43 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="100">
+      <c r="I15" s="121">
         <v>1</v>
       </c>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="100" t="s">
+      <c r="J15" s="122"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="100" t="s">
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="100" t="s">
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="100" t="s">
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="122"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="102"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="122"/>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="123"/>
       <c r="AJ15" s="39"/>
       <c r="AK15" s="42"/>
       <c r="AL15" s="42"/>
@@ -3704,43 +4469,43 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="97">
+      <c r="I16" s="124">
         <v>2</v>
       </c>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="97" t="s">
+      <c r="J16" s="125"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="97" t="s">
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="97" t="s">
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="97" t="s">
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="99"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="126"/>
       <c r="AJ16" s="39"/>
       <c r="AK16" s="42"/>
       <c r="AL16" s="42"/>
@@ -3756,35 +4521,35 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="100">
+      <c r="I17" s="121">
         <v>3</v>
       </c>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="102"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="122"/>
+      <c r="AC17" s="123"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="122"/>
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="123"/>
       <c r="AJ17" s="39"/>
       <c r="AK17" s="41"/>
       <c r="AL17" s="41"/>
@@ -3800,35 +4565,35 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="97">
+      <c r="I18" s="124">
         <v>4</v>
       </c>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="99"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="126"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="126"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="125"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="126"/>
       <c r="AJ18" s="39"/>
       <c r="AK18" s="41"/>
       <c r="AL18" s="41"/>
@@ -3844,35 +4609,35 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="100">
+      <c r="I19" s="121">
         <v>5</v>
       </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="100"/>
-      <c r="AE19" s="101"/>
-      <c r="AF19" s="101"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="102"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="122"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="122"/>
+      <c r="AH19" s="122"/>
+      <c r="AI19" s="123"/>
       <c r="AJ19" s="39"/>
       <c r="AK19" s="41"/>
       <c r="AL19" s="41"/>
@@ -3888,35 +4653,35 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="97">
+      <c r="I20" s="124">
         <v>6</v>
       </c>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="99"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="126"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="126"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="126"/>
       <c r="AJ20" s="39"/>
       <c r="AK20" s="41"/>
       <c r="AL20" s="41"/>
@@ -3932,35 +4697,35 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="100">
+      <c r="I21" s="121">
         <v>7</v>
       </c>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="101"/>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="102"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="123"/>
       <c r="AJ21" s="39"/>
       <c r="AK21" s="41"/>
       <c r="AL21" s="41"/>
@@ -3976,35 +4741,35 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="68" t="s">
+      <c r="I22" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="70"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
       <c r="AJ22" s="41"/>
       <c r="AK22" s="41"/>
       <c r="AL22" s="41"/>
@@ -4106,48 +4871,48 @@
     </row>
     <row r="28" spans="2:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="107"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="107"/>
-      <c r="AI29" s="107"/>
-      <c r="AJ29" s="107"/>
-      <c r="AK29" s="107"/>
-      <c r="AL29" s="107"/>
-      <c r="AM29" s="107"/>
-      <c r="AN29" s="107"/>
-      <c r="AO29" s="118"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="50"/>
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
@@ -4380,38 +5145,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:AE4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="AE9:AK9"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="X20:AC20"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="X17:AC17"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="AD16:AI16"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="X19:AC19"/>
-    <mergeCell ref="AD19:AI19"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="AD15:AI15"/>
     <mergeCell ref="I22:AI22"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="AD20:AI20"/>
@@ -4428,10 +5161,313 @@
     <mergeCell ref="X18:AC18"/>
     <mergeCell ref="AD18:AI18"/>
     <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="AD16:AI16"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="X19:AC19"/>
+    <mergeCell ref="AD19:AI19"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="AD15:AI15"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="X20:AC20"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:AE4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="AE9:AK9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Sheet1!A1" display="Home"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="135" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="133">
+        <v>1</v>
+      </c>
+      <c r="C7" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="133"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="133">
+        <v>2</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="133"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="133">
+        <v>3</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="133">
+        <v>4</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="133">
+        <v>5</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="133">
+        <v>6</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="133">
+        <v>7</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="133">
+        <v>8</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="133">
+        <v>9</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>